--- a/Макеты/ВА_ИмпортExcel_Меркурий_En.xlsx
+++ b/Макеты/ВА_ИмпортExcel_Меркурий_En.xlsx
@@ -1,148 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tests\VA-Tests-Perform-En-Budget\Макеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD721D9-7EFC-4E87-A419-1EB771C17377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
-    <t>ВА - ИмпортExcel(многопериодный)</t>
-  </si>
-  <si>
-    <t>Контрагенты_Наименование</t>
-  </si>
-  <si>
-    <t>Договоры контрагентов_Наименование</t>
-  </si>
-  <si>
-    <t>Товарные категории_Наименование</t>
-  </si>
-  <si>
-    <t>Номенклатура_Наименование</t>
-  </si>
-  <si>
-    <t>Статьи ДДС_Наименование</t>
-  </si>
-  <si>
-    <t>Статьи доходов и расходов_Наименование</t>
-  </si>
-  <si>
-    <t>Валюты_Наименование</t>
-  </si>
-  <si>
-    <t>Январь 2021 г.</t>
-  </si>
-  <si>
-    <t>Февраль 2021 г.</t>
-  </si>
-  <si>
-    <t>Март 2021 г.</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Строка_Синтетика_1</t>
-  </si>
-  <si>
-    <t>Группа_Синтетика</t>
-  </si>
-  <si>
-    <t>Строка_Синтетика_2</t>
-  </si>
-  <si>
-    <t>Группа_Аналитики_0</t>
-  </si>
-  <si>
-    <t>Группа_Аналитики_1_2</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_1</t>
-  </si>
-  <si>
-    <t>ООО "Ганимед"</t>
-  </si>
-  <si>
-    <t>ООО "Ио"</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_2</t>
-  </si>
-  <si>
-    <t>Группа_Аналитики_6</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_6</t>
-  </si>
-  <si>
-    <t>Программные продукты</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8.3 КОРП. Лицензия на сервер (x86-64)</t>
-  </si>
-  <si>
-    <t>Реализация программных продуктов</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8 КОРП. Клиентская лицензия на 100 рабочих мест</t>
-  </si>
-  <si>
-    <t>1С:Управление холдингом 8</t>
-  </si>
-  <si>
-    <t>Внедрение программных продуктов</t>
-  </si>
-  <si>
-    <t>1С:Корпорация</t>
-  </si>
-  <si>
-    <t>1С:ERP. Управление холдингом</t>
-  </si>
-  <si>
-    <t>Группа_Валюта</t>
-  </si>
-  <si>
-    <t>Строка_Аналитики_6_Валюта</t>
-  </si>
-  <si>
     <t>RUB</t>
   </si>
   <si>
-    <t>Ганимед-001 от 1/1/2021</t>
-  </si>
-  <si>
-    <t>Ио-001 от 1/1/2021</t>
-  </si>
-  <si>
-    <t>Ганимед-002 от 1/1/2021</t>
-  </si>
-  <si>
-    <t>Ио-002 от 1/1/2021</t>
+    <t>Group_Synthetic</t>
+  </si>
+  <si>
+    <t>Group_Dimensions_0</t>
+  </si>
+  <si>
+    <t>Group_Dimensions_1_2</t>
+  </si>
+  <si>
+    <t>Group_Dimensions_6</t>
+  </si>
+  <si>
+    <t>Group_Currency</t>
+  </si>
+  <si>
+    <t>LLC "Ganymede"</t>
+  </si>
+  <si>
+    <t>LLC "Io"</t>
+  </si>
+  <si>
+    <t>Software products</t>
+  </si>
+  <si>
+    <t>1C:ERP. Corporate performance management</t>
+  </si>
+  <si>
+    <t>January 2021</t>
+  </si>
+  <si>
+    <t>February 2021</t>
+  </si>
+  <si>
+    <t>March 2021</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>VA - ImportExcel</t>
+  </si>
+  <si>
+    <t>Line_Synthetic_1</t>
+  </si>
+  <si>
+    <t>Line_Synthetic_2</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_1</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_2</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_6</t>
+  </si>
+  <si>
+    <t>Line_Dimensions_6_Currency</t>
+  </si>
+  <si>
+    <t>Ganymede-001 from 1/1/2021</t>
+  </si>
+  <si>
+    <t>Io-001 from 1/1/2021</t>
+  </si>
+  <si>
+    <t>Ganymede-002 from 1/1/2021</t>
+  </si>
+  <si>
+    <t>Io-002 from 1/1/2021</t>
+  </si>
+  <si>
+    <t>Counterparties</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Product categories</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Cash flow items</t>
+  </si>
+  <si>
+    <t>Income and expense items</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
+  <si>
+    <t>4C:Enterprise 8.3 CORP. Server License (x86-64)</t>
+  </si>
+  <si>
+    <t>3C:Enterprise 8 CORP. Client license for 100 users</t>
+  </si>
+  <si>
+    <t>5C:Corporate performance management</t>
+  </si>
+  <si>
+    <t>2C:Corporation</t>
+  </si>
+  <si>
+    <t>3Software sale</t>
+  </si>
+  <si>
+    <t>2Software implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -237,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -269,7 +268,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -676,7 +684,7 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -687,7 +695,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -704,72 +712,72 @@
       <c r="N2"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
+      <c r="A6" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -795,7 +803,7 @@
     </row>
     <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -812,8 +820,8 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
+      <c r="A8" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -841,7 +849,7 @@
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -859,7 +867,7 @@
     </row>
     <row r="10" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -876,7 +884,7 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B11"/>
@@ -896,7 +904,7 @@
     <row r="12" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -926,7 +934,7 @@
     <row r="13" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -954,8 +962,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
+      <c r="A14" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -974,10 +982,10 @@
     <row r="15" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1006,10 +1014,10 @@
     <row r="16" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -1037,7 +1045,7 @@
     </row>
     <row r="17" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -1054,8 +1062,8 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>23</v>
+      <c r="A18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -1074,22 +1082,22 @@
     <row r="19" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="G19" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="6">
@@ -1114,22 +1122,22 @@
     <row r="20" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="6">
@@ -1154,22 +1162,22 @@
     <row r="21" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G21" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="6">
@@ -1194,22 +1202,22 @@
     <row r="22" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H22"/>
       <c r="I22" s="6">
@@ -1234,22 +1242,22 @@
     <row r="23" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G23" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H23"/>
       <c r="I23" s="6">
@@ -1273,7 +1281,7 @@
     </row>
     <row r="24" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1290,8 +1298,8 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>33</v>
+      <c r="A25" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1310,25 +1318,25 @@
     <row r="26" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="G26" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6">
         <v>2</v>
@@ -1352,25 +1360,25 @@
     <row r="27" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="G27" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I27" s="6">
         <v>2</v>
@@ -1394,25 +1402,25 @@
     <row r="28" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G28" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I28" s="6">
         <v>2</v>
@@ -1436,25 +1444,25 @@
     <row r="29" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G29" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I29" s="6">
         <v>2</v>
@@ -1478,25 +1486,25 @@
     <row r="30" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G30" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I30" s="6">
         <v>2</v>
